--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Serping1</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Serping1</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H2">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I2">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J2">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>13.545386711454</v>
+        <v>348.216703468816</v>
       </c>
       <c r="R2">
-        <v>121.908480403086</v>
+        <v>3133.950331219344</v>
       </c>
       <c r="S2">
-        <v>8.754835395288178E-05</v>
+        <v>0.00169459312913475</v>
       </c>
       <c r="T2">
-        <v>8.75483539528818E-05</v>
+        <v>0.001694593129134749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H3">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I3">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J3">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>1107.727495302769</v>
+        <v>5429.928834910907</v>
       </c>
       <c r="R3">
-        <v>9969.547457724921</v>
+        <v>48869.35951419816</v>
       </c>
       <c r="S3">
-        <v>0.00715961241328753</v>
+        <v>0.02642469474803556</v>
       </c>
       <c r="T3">
-        <v>0.007159612413287532</v>
+        <v>0.02642469474803556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H4">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I4">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J4">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>1028.496330685581</v>
+        <v>6424.579542143289</v>
       </c>
       <c r="R4">
-        <v>9256.466976170232</v>
+        <v>57821.21587928961</v>
       </c>
       <c r="S4">
-        <v>0.006647514959610626</v>
+        <v>0.03126515253645972</v>
       </c>
       <c r="T4">
-        <v>0.006647514959610626</v>
+        <v>0.03126515253645972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H5">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I5">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J5">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>178.1426988539698</v>
+        <v>613.0997691670414</v>
       </c>
       <c r="R5">
-        <v>1603.284289685728</v>
+        <v>5517.897922503372</v>
       </c>
       <c r="S5">
-        <v>0.001151395702878006</v>
+        <v>0.002983643937682648</v>
       </c>
       <c r="T5">
-        <v>0.001151395702878006</v>
+        <v>0.002983643937682648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H6">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I6">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J6">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>414.9962560732878</v>
+        <v>2078.221174073156</v>
       </c>
       <c r="R6">
-        <v>3734.96630465959</v>
+        <v>18703.99056665841</v>
       </c>
       <c r="S6">
-        <v>0.002682259273196118</v>
+        <v>0.01011364270388054</v>
       </c>
       <c r="T6">
-        <v>0.002682259273196119</v>
+        <v>0.01011364270388054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H7">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I7">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J7">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>973.5293137180695</v>
+        <v>9190.222643793026</v>
       </c>
       <c r="R7">
-        <v>8761.763823462625</v>
+        <v>82712.00379413723</v>
       </c>
       <c r="S7">
-        <v>0.006292244788317802</v>
+        <v>0.04472412722379623</v>
       </c>
       <c r="T7">
-        <v>0.006292244788317802</v>
+        <v>0.04472412722379623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>646.139694</v>
       </c>
       <c r="I8">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J8">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>376.710425976798</v>
+        <v>1975.625528619704</v>
       </c>
       <c r="R8">
-        <v>3390.393833791182</v>
+        <v>17780.62975757734</v>
       </c>
       <c r="S8">
-        <v>0.002434805178597767</v>
+        <v>0.009614362014204677</v>
       </c>
       <c r="T8">
-        <v>0.002434805178597768</v>
+        <v>0.009614362014204675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>646.139694</v>
       </c>
       <c r="I9">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J9">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>30806.9828873069</v>
@@ -1013,10 +1013,10 @@
         <v>277262.845985762</v>
       </c>
       <c r="S9">
-        <v>0.1991158096474015</v>
+        <v>0.1499218762631163</v>
       </c>
       <c r="T9">
-        <v>0.1991158096474015</v>
+        <v>0.1499218762631162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>646.139694</v>
       </c>
       <c r="I10">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J10">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>28603.48686246917</v>
+        <v>36450.18526586228</v>
       </c>
       <c r="R10">
-        <v>257431.3817622226</v>
+        <v>328051.6673927605</v>
       </c>
       <c r="S10">
-        <v>0.1848738796068857</v>
+        <v>0.1773844645931825</v>
       </c>
       <c r="T10">
-        <v>0.1848738796068857</v>
+        <v>0.1773844645931825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>646.139694</v>
       </c>
       <c r="I11">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J11">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>4954.32233862977</v>
+        <v>3478.453340954469</v>
       </c>
       <c r="R11">
-        <v>44588.90104766793</v>
+        <v>31306.08006859021</v>
       </c>
       <c r="S11">
-        <v>0.0320214383641225</v>
+        <v>0.01692785863767485</v>
       </c>
       <c r="T11">
-        <v>0.0320214383641225</v>
+        <v>0.01692785863767484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>646.139694</v>
       </c>
       <c r="I12">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J12">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>11541.45095554554</v>
+        <v>11790.89562538641</v>
       </c>
       <c r="R12">
-        <v>103873.0585999098</v>
+        <v>106118.0606284777</v>
       </c>
       <c r="S12">
-        <v>0.07459624851695824</v>
+        <v>0.05738027646027079</v>
       </c>
       <c r="T12">
-        <v>0.07459624851695826</v>
+        <v>0.05738027646027079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>646.139694</v>
       </c>
       <c r="I13">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J13">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>27074.80046778724</v>
+        <v>52141.20485292096</v>
       </c>
       <c r="R13">
-        <v>243673.2042100851</v>
+        <v>469270.8436762887</v>
       </c>
       <c r="S13">
-        <v>0.174993469367184</v>
+        <v>0.2537446555790512</v>
       </c>
       <c r="T13">
-        <v>0.174993469367184</v>
+        <v>0.2537446555790512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H14">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I14">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J14">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>0.6262908538080001</v>
+        <v>639.8043403147067</v>
       </c>
       <c r="R14">
-        <v>5.636617684272</v>
+        <v>5758.23906283236</v>
       </c>
       <c r="S14">
-        <v>4.047926760206143E-06</v>
+        <v>0.00311360146795769</v>
       </c>
       <c r="T14">
-        <v>4.047926760206144E-06</v>
+        <v>0.003113601467957689</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H15">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I15">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J15">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>51.21740808131557</v>
+        <v>9976.810421695045</v>
       </c>
       <c r="R15">
-        <v>460.9566727318401</v>
+        <v>89791.29379525541</v>
       </c>
       <c r="S15">
-        <v>0.0003310351979438524</v>
+        <v>0.04855204883300045</v>
       </c>
       <c r="T15">
-        <v>0.0003310351979438525</v>
+        <v>0.04855204883300043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H16">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I16">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J16">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>47.55403878862934</v>
+        <v>11804.35583592978</v>
       </c>
       <c r="R16">
-        <v>427.9863490976641</v>
+        <v>106239.202523368</v>
       </c>
       <c r="S16">
-        <v>0.0003073576198629691</v>
+        <v>0.05744578044120069</v>
       </c>
       <c r="T16">
-        <v>0.0003073576198629691</v>
+        <v>0.05744578044120068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H17">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I17">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J17">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>8.236689386695112</v>
+        <v>1126.493615761159</v>
       </c>
       <c r="R17">
-        <v>74.13020448025601</v>
+        <v>10138.44254185043</v>
       </c>
       <c r="S17">
-        <v>5.323647181047683E-05</v>
+        <v>0.005482069993388395</v>
       </c>
       <c r="T17">
-        <v>5.323647181047684E-05</v>
+        <v>0.005482069993388393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H18">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I18">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J18">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>19.18796156063111</v>
+        <v>3818.469688732223</v>
       </c>
       <c r="R18">
-        <v>172.69165404568</v>
+        <v>34366.22719859002</v>
       </c>
       <c r="S18">
-        <v>0.000124018197939223</v>
+        <v>0.01858254481728046</v>
       </c>
       <c r="T18">
-        <v>0.000124018197939223</v>
+        <v>0.01858254481728045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H19">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I19">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J19">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>45.01255800840535</v>
+        <v>16885.87674681679</v>
       </c>
       <c r="R19">
-        <v>405.1130220756481</v>
+        <v>151972.8907213511</v>
       </c>
       <c r="S19">
-        <v>0.0002909311815743266</v>
+        <v>0.08217495148716927</v>
       </c>
       <c r="T19">
-        <v>0.0002909311815743266</v>
+        <v>0.08217495148716926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H20">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I20">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J20">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>169.809941863968</v>
+        <v>4.544530981206666</v>
       </c>
       <c r="R20">
-        <v>1528.289476775712</v>
+        <v>40.90077883085999</v>
       </c>
       <c r="S20">
-        <v>0.001097538314092852</v>
+        <v>2.211591488626703E-05</v>
       </c>
       <c r="T20">
-        <v>0.001097538314092853</v>
+        <v>2.211591488626702E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H21">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I21">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J21">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>13886.87865363207</v>
+        <v>70.86529615087778</v>
       </c>
       <c r="R21">
-        <v>124981.9078826887</v>
+        <v>637.7876653579</v>
       </c>
       <c r="S21">
-        <v>0.08975553031947323</v>
+        <v>0.0003448652599232104</v>
       </c>
       <c r="T21">
-        <v>0.08975553031947324</v>
+        <v>0.0003448652599232103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H22">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I22">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J22">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>12893.60767923588</v>
+        <v>83.84635337607055</v>
       </c>
       <c r="R22">
-        <v>116042.469113123</v>
+        <v>754.6171803846349</v>
       </c>
       <c r="S22">
-        <v>0.08333568859106923</v>
+        <v>0.0004080374459889102</v>
       </c>
       <c r="T22">
-        <v>0.08333568859106923</v>
+        <v>0.0004080374459889102</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H23">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I23">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J23">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>2233.262289241487</v>
+        <v>8.001485476700555</v>
       </c>
       <c r="R23">
-        <v>20099.36060317338</v>
+        <v>72.01336929030499</v>
       </c>
       <c r="S23">
-        <v>0.0144343193393516</v>
+        <v>3.893914960602263E-05</v>
       </c>
       <c r="T23">
-        <v>0.01443431933935161</v>
+        <v>3.893914960602263E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H24">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I24">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J24">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>5202.545458372143</v>
+        <v>27.12259468684833</v>
       </c>
       <c r="R24">
-        <v>46822.90912534929</v>
+        <v>244.103352181635</v>
       </c>
       <c r="S24">
-        <v>0.03362578721066503</v>
+        <v>0.0001319918376768962</v>
       </c>
       <c r="T24">
-        <v>0.03362578721066503</v>
+        <v>0.0001319918376768962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H25">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I25">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J25">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>12204.52096989918</v>
+        <v>119.9404023783272</v>
       </c>
       <c r="R25">
-        <v>109840.6887290926</v>
+        <v>1079.463621404945</v>
       </c>
       <c r="S25">
-        <v>0.07888189126373103</v>
+        <v>0.0005836887769922048</v>
       </c>
       <c r="T25">
-        <v>0.07888189126373103</v>
+        <v>0.0005836887769922048</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H26">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I26">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J26">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>1.349724000156</v>
+        <v>2.792774604654667</v>
       </c>
       <c r="R26">
-        <v>12.147516001404</v>
+        <v>25.134971441892</v>
       </c>
       <c r="S26">
-        <v>8.723716570191053E-06</v>
+        <v>1.359100987725489E-05</v>
       </c>
       <c r="T26">
-        <v>8.723716570191055E-06</v>
+        <v>1.359100987725489E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H27">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I27">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J27">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>110.3790107947645</v>
+        <v>43.54922438859779</v>
       </c>
       <c r="R27">
-        <v>993.4110971528802</v>
+        <v>391.94301949738</v>
       </c>
       <c r="S27">
-        <v>0.0007134163765038563</v>
+        <v>0.0002119318679802336</v>
       </c>
       <c r="T27">
-        <v>0.0007134163765038564</v>
+        <v>0.0002119318679802336</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H28">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I28">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J28">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>102.4840568357387</v>
+        <v>51.52654198418856</v>
       </c>
       <c r="R28">
-        <v>922.3565115216481</v>
+        <v>463.738877857697</v>
       </c>
       <c r="S28">
-        <v>0.0006623886547879438</v>
+        <v>0.0002507534048328576</v>
       </c>
       <c r="T28">
-        <v>0.0006623886547879438</v>
+        <v>0.0002507534048328576</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H29">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I29">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J29">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>17.75094954597689</v>
+        <v>4.917195092574556</v>
       </c>
       <c r="R29">
-        <v>159.758545913792</v>
+        <v>44.254755833171</v>
       </c>
       <c r="S29">
-        <v>0.000114730309806276</v>
+        <v>2.392948108314445E-05</v>
       </c>
       <c r="T29">
-        <v>0.000114730309806276</v>
+        <v>2.392948108314444E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H30">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I30">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J30">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>41.35211631302889</v>
+        <v>16.66779123456633</v>
       </c>
       <c r="R30">
-        <v>372.16904681726</v>
+        <v>150.010121111097</v>
       </c>
       <c r="S30">
-        <v>0.0002672725255316964</v>
+        <v>8.111364050770748E-05</v>
       </c>
       <c r="T30">
-        <v>0.0002672725255316964</v>
+        <v>8.111364050770748E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H31">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I31">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J31">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>97.00689301617069</v>
+        <v>73.70760838015323</v>
       </c>
       <c r="R31">
-        <v>873.0620371455362</v>
+        <v>663.368475421379</v>
       </c>
       <c r="S31">
-        <v>0.0006269879174780243</v>
+        <v>0.0003586973441587019</v>
       </c>
       <c r="T31">
-        <v>0.0006269879174780243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H32">
-        <v>3.200419</v>
-      </c>
-      <c r="I32">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J32">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.749051</v>
-      </c>
-      <c r="N32">
-        <v>5.247153</v>
-      </c>
-      <c r="O32">
-        <v>0.003644723415756577</v>
-      </c>
-      <c r="P32">
-        <v>0.003644723415756578</v>
-      </c>
-      <c r="Q32">
-        <v>1.865898684123</v>
-      </c>
-      <c r="R32">
-        <v>16.793088157107</v>
-      </c>
-      <c r="S32">
-        <v>1.205992578267864E-05</v>
-      </c>
-      <c r="T32">
-        <v>1.205992578267865E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H33">
-        <v>3.200419</v>
-      </c>
-      <c r="I33">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J33">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>143.0355533333334</v>
-      </c>
-      <c r="N33">
-        <v>429.10666</v>
-      </c>
-      <c r="O33">
-        <v>0.2980616520156924</v>
-      </c>
-      <c r="P33">
-        <v>0.2980616520156925</v>
-      </c>
-      <c r="Q33">
-        <v>152.5912341878378</v>
-      </c>
-      <c r="R33">
-        <v>1373.32110769054</v>
-      </c>
-      <c r="S33">
-        <v>0.0009862480610824801</v>
-      </c>
-      <c r="T33">
-        <v>0.0009862480610824803</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H34">
-        <v>3.200419</v>
-      </c>
-      <c r="I34">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J34">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>132.804812</v>
-      </c>
-      <c r="N34">
-        <v>398.414436</v>
-      </c>
-      <c r="O34">
-        <v>0.2767425352500014</v>
-      </c>
-      <c r="P34">
-        <v>0.2767425352500014</v>
-      </c>
-      <c r="Q34">
-        <v>141.6770145387427</v>
-      </c>
-      <c r="R34">
-        <v>1275.093130848684</v>
-      </c>
-      <c r="S34">
-        <v>0.0009157058177849532</v>
-      </c>
-      <c r="T34">
-        <v>0.0009157058177849533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H35">
-        <v>3.200419</v>
-      </c>
-      <c r="I35">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J35">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.00271466666667</v>
-      </c>
-      <c r="N35">
-        <v>69.008144</v>
-      </c>
-      <c r="O35">
-        <v>0.04793372678759353</v>
-      </c>
-      <c r="P35">
-        <v>0.04793372678759353</v>
-      </c>
-      <c r="Q35">
-        <v>24.53944169025955</v>
-      </c>
-      <c r="R35">
-        <v>220.854975212336</v>
-      </c>
-      <c r="S35">
-        <v>0.0001586065996246727</v>
-      </c>
-      <c r="T35">
-        <v>0.0001586065996246728</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H36">
-        <v>3.200419</v>
-      </c>
-      <c r="I36">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J36">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>53.58648166666666</v>
-      </c>
-      <c r="N36">
-        <v>160.759445</v>
-      </c>
-      <c r="O36">
-        <v>0.111665071229204</v>
-      </c>
-      <c r="P36">
-        <v>0.111665071229204</v>
-      </c>
-      <c r="Q36">
-        <v>57.16639802305055</v>
-      </c>
-      <c r="R36">
-        <v>514.497582207455</v>
-      </c>
-      <c r="S36">
-        <v>0.0003694855049137331</v>
-      </c>
-      <c r="T36">
-        <v>0.0003694855049137332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.066806333333333</v>
-      </c>
-      <c r="H37">
-        <v>3.200419</v>
-      </c>
-      <c r="I37">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="J37">
-        <v>0.003308872692655397</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>125.707184</v>
-      </c>
-      <c r="N37">
-        <v>377.1215520000001</v>
-      </c>
-      <c r="O37">
-        <v>0.261952291301752</v>
-      </c>
-      <c r="P37">
-        <v>0.261952291301752</v>
-      </c>
-      <c r="Q37">
-        <v>134.1052200366987</v>
-      </c>
-      <c r="R37">
-        <v>1206.946980330288</v>
-      </c>
-      <c r="S37">
-        <v>0.0008667667834668791</v>
-      </c>
-      <c r="T37">
-        <v>0.0008667667834668792</v>
+        <v>0.0003586973441587019</v>
       </c>
     </row>
   </sheetData>
